--- a/readme/menu_suggest.xlsx
+++ b/readme/menu_suggest.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>建议的菜单配置：</t>
   </si>
@@ -68,7 +68,7 @@
     <t>menu_tpl_learn</t>
   </si>
   <si>
-    <t>自行决定添加哪几个快捷模板操作</t>
+    <t>自行决定添加哪几个快捷模板操作，数据库里有的都可以放</t>
   </si>
   <si>
     <t>高级功能</t>
@@ -99,6 +99,48 @@
   </si>
   <si>
     <t>点击会返回所有可用功能的卡片</t>
+  </si>
+  <si>
+    <t>所有可以放到快捷菜单上的高级功能包括：</t>
+  </si>
+  <si>
+    <t>重新发送文本</t>
+  </si>
+  <si>
+    <t>menu_send_astxt</t>
+  </si>
+  <si>
+    <t>markdown格式消息如果使用卡片消息复制文本出来，所有格式都会丢失，包括序列编号，可以让飞书重新以文本消息方式发送一遍，就可以得到原始markdown文本</t>
+  </si>
+  <si>
+    <t>转语音发送</t>
+  </si>
+  <si>
+    <t>menu_send_asvoice</t>
+  </si>
+  <si>
+    <t>上一条消息使用文字转语音接口转成语音以后发送到飞书，适合没有时间看文字的时候让它语音朗读（依赖MiniMax或腾讯的文字转语音接口）</t>
+  </si>
+  <si>
+    <t>总结思维导图</t>
+  </si>
+  <si>
+    <t>menu_ask_markmap</t>
+  </si>
+  <si>
+    <t>将整个对话上下文总结成思维导图格式，输出markdown以后可以直接点击预览网页查看思维导图效果</t>
+  </si>
+  <si>
+    <t>提供几个问题</t>
+  </si>
+  <si>
+    <t>menu_gettips</t>
+  </si>
+  <si>
+    <t>当你跟模型聊到不知道应该问什么的时候，可以让它根据上下文帮你提供几个可以继续深入交流的问题</t>
+  </si>
+  <si>
+    <t>另外如果开通了腾讯的语音转文字接口，可以直接对任意模型发语音，它会先先调用这个接口转成文字再发给模型，实现全语音的交互。</t>
   </si>
 </sst>
 </file>
@@ -1253,10 +1295,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1264,6 +1306,7 @@
     <col min="2" max="2" width="14.5865384615385" customWidth="1"/>
     <col min="3" max="3" width="19.2307692307692" customWidth="1"/>
     <col min="4" max="4" width="24.0384615384615" customWidth="1"/>
+    <col min="6" max="6" width="61.6923076923077" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1358,6 +1401,82 @@
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:6">
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="3:6">
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6">
+      <c r="C18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6">
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6">
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/readme/menu_suggest.xlsx
+++ b/readme/menu_suggest.xlsx
@@ -1298,7 +1298,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="5"/>
